--- a/MVandebroek/TAKEN/TASK0/1. FILES/archive/user_info with coding.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/archive/user_info with coding.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK0.116082023..data...quiz.links..Total.Pts..1.Score...118854</t>
+    <t xml:space="preserve">TASK0.instructions..Total.Pts..1.Score...127326</t>
   </si>
   <si>
     <t xml:space="preserve">Marking.Notes</t>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Leonard</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-29 13:06:47</t>
+    <t xml:space="preserve">2023-09-07 10:21:59</t>
   </si>
   <si>
     <t xml:space="preserve">yXzkle</t>
